--- a/docs/StructureDefinition-VAPatientRatedDisabilityObservation.xlsx
+++ b/docs/StructureDefinition-VAPatientRatedDisabilityObservation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="495">
   <si>
     <t>Path</t>
   </si>
@@ -335,244 +335,241 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1509,6 +1506,9 @@
   </si>
   <si>
     <t>Observation.component.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://va.gov/Terminology/VistaDefinedTerms/2.04-.01</t>
   </si>
   <si>
     <t>Observation.component.value[x].coding.version</t>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2749,15 +2749,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2794,14 +2796,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2831,7 +2835,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2846,7 +2850,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2865,16 +2869,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2924,7 +2928,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -2962,7 +2966,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2985,17 +2989,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -3044,7 +3048,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3062,19 +3066,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3082,11 +3086,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3105,17 +3109,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3164,7 +3168,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3182,16 +3186,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3202,7 +3206,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3228,16 +3232,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
@@ -3262,61 +3266,61 @@
         <v>46</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3324,7 +3328,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3347,19 +3351,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3384,14 +3388,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3435,10 +3439,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3446,11 +3450,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3469,17 +3473,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3504,69 +3508,69 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3589,13 +3593,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3646,7 +3650,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3673,7 +3677,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3684,11 +3688,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3707,16 +3711,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3754,19 +3758,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3793,7 +3797,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3804,7 +3808,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3827,19 +3831,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -3888,7 +3892,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3912,10 +3916,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -3926,7 +3930,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3949,13 +3953,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4006,7 +4010,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4033,7 +4037,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -4044,11 +4048,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4067,16 +4071,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4114,19 +4118,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4153,7 +4157,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4164,7 +4168,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4190,92 +4194,92 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4286,7 +4290,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4309,16 +4313,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4368,34 +4372,34 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4406,7 +4410,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4432,90 +4436,90 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4526,7 +4530,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4549,17 +4553,17 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
@@ -4608,34 +4612,34 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4646,7 +4650,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4669,19 +4673,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4730,34 +4734,34 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4768,7 +4772,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4791,19 +4795,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4852,34 +4856,34 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -4890,7 +4894,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4913,19 +4917,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -4974,7 +4978,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -4992,19 +4996,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5012,11 +5016,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5035,19 +5039,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5096,7 +5100,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5114,19 +5118,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5134,11 +5138,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5157,19 +5161,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5218,7 +5222,7 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5236,19 +5240,19 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5256,7 +5260,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5279,16 +5283,16 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5338,7 +5342,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5362,13 +5366,13 @@
         <v>46</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5376,7 +5380,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5399,17 +5403,17 @@
         <v>58</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>46</v>
@@ -5458,7 +5462,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5476,19 +5480,19 @@
         <v>46</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5496,7 +5500,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5519,19 +5523,19 @@
         <v>58</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>46</v>
@@ -5580,7 +5584,7 @@
         <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5589,36 +5593,36 @@
         <v>57</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AI32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5641,19 +5645,19 @@
         <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5681,38 +5685,38 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AI33" t="s" s="2">
         <v>46</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>46</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>46</v>
@@ -5729,7 +5733,7 @@
         <v>100</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>46</v>
@@ -5740,11 +5744,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5763,17 +5767,17 @@
         <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>46</v>
@@ -5801,66 +5805,66 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5883,17 +5887,17 @@
         <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>46</v>
@@ -5942,7 +5946,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -5960,16 +5964,16 @@
         <v>46</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>46</v>
@@ -5980,7 +5984,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6003,16 +6007,16 @@
         <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6038,69 +6042,69 @@
         <v>46</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6123,19 +6127,19 @@
         <v>46</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>46</v>
@@ -6160,58 +6164,58 @@
         <v>46</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>46</v>
@@ -6222,7 +6226,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6245,16 +6249,16 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6304,7 +6308,7 @@
         <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6325,24 +6329,24 @@
         <v>46</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6365,16 +6369,16 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6424,7 +6428,7 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6445,24 +6449,24 @@
         <v>46</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6485,19 +6489,19 @@
         <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>46</v>
@@ -6546,7 +6550,7 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6558,22 +6562,22 @@
         <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6584,7 +6588,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6607,13 +6611,13 @@
         <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6664,7 +6668,7 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6691,7 +6695,7 @@
         <v>46</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6702,11 +6706,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6725,16 +6729,16 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6784,7 +6788,7 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6811,7 +6815,7 @@
         <v>46</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6822,11 +6826,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6845,16 +6849,16 @@
         <v>58</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6904,7 +6908,7 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6942,7 +6946,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6965,13 +6969,13 @@
         <v>46</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7022,7 +7026,7 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -7031,25 +7035,25 @@
         <v>57</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
@@ -7060,7 +7064,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7083,13 +7087,13 @@
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7140,7 +7144,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7149,25 +7153,25 @@
         <v>57</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AN45" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>46</v>
@@ -7178,7 +7182,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7201,19 +7205,19 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
@@ -7241,55 +7245,55 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AN46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7300,7 +7304,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7323,19 +7327,19 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
@@ -7360,14 +7364,14 @@
         <v>46</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>46</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7405,13 +7409,13 @@
         <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AN47" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
@@ -7422,7 +7426,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7445,17 +7449,17 @@
         <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7504,7 +7508,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7531,7 +7535,7 @@
         <v>46</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>46</v>
@@ -7542,7 +7546,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7565,13 +7569,13 @@
         <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7622,7 +7626,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7646,10 +7650,10 @@
         <v>46</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
@@ -7660,7 +7664,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7683,19 +7687,19 @@
         <v>58</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>46</v>
@@ -7744,7 +7748,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7756,22 +7760,22 @@
         <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>46</v>
@@ -7782,7 +7786,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7805,13 +7809,13 @@
         <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7862,7 +7866,7 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7889,7 +7893,7 @@
         <v>46</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>46</v>
@@ -7900,11 +7904,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7923,16 +7927,16 @@
         <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7982,7 +7986,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -8009,7 +8013,7 @@
         <v>46</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>46</v>
@@ -8020,11 +8024,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8043,16 +8047,16 @@
         <v>58</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8102,7 +8106,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8140,7 +8144,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8166,16 +8170,16 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>46</v>
@@ -8200,14 +8204,14 @@
         <v>46</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>46</v>
       </c>
@@ -8224,7 +8228,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8251,7 +8255,7 @@
         <v>100</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>
@@ -8262,7 +8266,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8285,13 +8289,13 @@
         <v>46</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8342,7 +8346,7 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>57</v>
@@ -8369,7 +8373,7 @@
         <v>46</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>46</v>
@@ -8380,7 +8384,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8403,19 +8407,19 @@
         <v>58</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>46</v>
@@ -8464,7 +8468,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8476,7 +8480,7 @@
         <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>46</v>
@@ -8488,10 +8492,10 @@
         <v>46</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>46</v>
@@ -8502,7 +8506,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8525,13 +8529,13 @@
         <v>46</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8582,7 +8586,7 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8609,7 +8613,7 @@
         <v>46</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>46</v>
@@ -8620,11 +8624,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8643,16 +8647,16 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8702,7 +8706,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8729,7 +8733,7 @@
         <v>46</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
@@ -8740,11 +8744,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8763,16 +8767,16 @@
         <v>58</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8822,7 +8826,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8883,17 +8887,17 @@
         <v>58</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>46</v>
@@ -8918,14 +8922,14 @@
         <v>46</v>
       </c>
       <c r="W60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>46</v>
       </c>
@@ -8942,7 +8946,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>57</v>
@@ -8963,16 +8967,16 @@
         <v>46</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>46</v>
@@ -8980,7 +8984,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9003,13 +9007,13 @@
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9060,7 +9064,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -9087,7 +9091,7 @@
         <v>46</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>46</v>
@@ -9098,11 +9102,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9121,16 +9125,16 @@
         <v>46</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9168,19 +9172,19 @@
         <v>46</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB62" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9207,7 +9211,7 @@
         <v>46</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>46</v>
@@ -9218,7 +9222,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9241,19 +9245,19 @@
         <v>58</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>46</v>
@@ -9302,7 +9306,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9326,10 +9330,10 @@
         <v>46</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9340,7 +9344,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9363,13 +9367,13 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9420,7 +9424,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9447,7 +9451,7 @@
         <v>46</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>46</v>
@@ -9458,11 +9462,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9481,16 +9485,16 @@
         <v>46</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9528,19 +9532,19 @@
         <v>46</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB65" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
@@ -9567,7 +9571,7 @@
         <v>46</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>46</v>
@@ -9578,7 +9582,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9604,92 +9608,92 @@
         <v>70</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="R66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE66" t="s" s="2">
+      <c r="AF66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AF66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>46</v>
@@ -9700,7 +9704,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9723,16 +9727,16 @@
         <v>58</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9782,34 +9786,34 @@
         <v>46</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>46</v>
@@ -9820,7 +9824,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9846,21 +9850,21 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>46</v>
@@ -9902,34 +9906,34 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>46</v>
@@ -9940,7 +9944,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9963,17 +9967,17 @@
         <v>58</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>46</v>
@@ -10022,34 +10026,34 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10060,7 +10064,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10083,19 +10087,19 @@
         <v>58</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>46</v>
@@ -10144,34 +10148,34 @@
         <v>46</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>46</v>
@@ -10182,7 +10186,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10205,19 +10209,19 @@
         <v>58</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>46</v>
@@ -10266,34 +10270,34 @@
         <v>46</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>46</v>
@@ -10304,7 +10308,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10327,19 +10331,19 @@
         <v>58</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>46</v>
@@ -10376,58 +10380,58 @@
         <v>46</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AB72" s="2"/>
       <c r="AC72" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AE72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AM72" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>46</v>
@@ -10449,19 +10453,19 @@
         <v>58</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>46</v>
@@ -10510,7 +10514,7 @@
         <v>46</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
@@ -10531,24 +10535,24 @@
         <v>46</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10571,13 +10575,13 @@
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10628,7 +10632,7 @@
         <v>46</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
@@ -10655,7 +10659,7 @@
         <v>46</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>46</v>
@@ -10666,11 +10670,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10689,16 +10693,16 @@
         <v>46</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10736,19 +10740,19 @@
         <v>46</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB75" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -10775,7 +10779,7 @@
         <v>46</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10786,7 +10790,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10809,19 +10813,19 @@
         <v>58</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>46</v>
@@ -10870,7 +10874,7 @@
         <v>46</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
@@ -10894,10 +10898,10 @@
         <v>46</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>46</v>
@@ -10908,7 +10912,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10931,13 +10935,13 @@
         <v>46</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10988,7 +10992,7 @@
         <v>46</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
@@ -11015,7 +11019,7 @@
         <v>46</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>46</v>
@@ -11026,11 +11030,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11049,16 +11053,16 @@
         <v>46</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11096,19 +11100,19 @@
         <v>46</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB78" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
@@ -11135,7 +11139,7 @@
         <v>46</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>46</v>
@@ -11144,9 +11148,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11160,7 +11164,7 @@
         <v>57</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>46</v>
@@ -11172,23 +11176,23 @@
         <v>70</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>46</v>
+        <v>478</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>46</v>
@@ -11230,34 +11234,34 @@
         <v>46</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>46</v>
@@ -11291,16 +11295,16 @@
         <v>58</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11350,34 +11354,34 @@
         <v>46</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>46</v>
@@ -11423,7 +11427,7 @@
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>46</v>
@@ -11472,7 +11476,7 @@
         <v>46</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
@@ -11496,10 +11500,10 @@
         <v>46</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>46</v>
@@ -11533,17 +11537,17 @@
         <v>58</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>46</v>
@@ -11592,34 +11596,34 @@
         <v>46</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>46</v>
@@ -11653,19 +11657,19 @@
         <v>58</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>46</v>
@@ -11714,34 +11718,34 @@
         <v>46</v>
       </c>
       <c r="AE83" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>46</v>
@@ -11775,19 +11779,19 @@
         <v>58</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>46</v>
@@ -11836,34 +11840,34 @@
         <v>46</v>
       </c>
       <c r="AE84" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>46</v>
@@ -11897,19 +11901,19 @@
         <v>46</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>489</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>490</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>46</v>
@@ -11937,10 +11941,10 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>46</v>
@@ -11967,7 +11971,7 @@
         <v>57</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>46</v>
@@ -11985,7 +11989,7 @@
         <v>100</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>46</v>
@@ -12000,7 +12004,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12019,19 +12023,19 @@
         <v>46</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>492</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>46</v>
@@ -12059,10 +12063,10 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>46</v>
@@ -12101,19 +12105,19 @@
         <v>46</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP86" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -12147,13 +12151,13 @@
         <v>494</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>46</v>
@@ -12226,10 +12230,10 @@
         <v>46</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>46</v>
